--- a/testing/FutureMarker-Defect-Reporting-(Martin).xlsx
+++ b/testing/FutureMarker-Defect-Reporting-(Martin).xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fawzy\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khmka\Documents\GitHub\FutureMarker\testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Defect overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="88">
   <si>
     <t>Total bugs encountered</t>
   </si>
@@ -286,12 +286,21 @@
   </si>
   <si>
     <t>don`t do anything</t>
+  </si>
+  <si>
+    <t>Karim Hisham</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Closed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -465,6 +474,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -483,7 +493,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -791,39 +800,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="G4:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="15.42578125" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G4" s="16" t="s">
+    <row r="4" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-    </row>
-    <row r="5" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-    </row>
-    <row r="6" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G6" s="16" t="s">
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+    </row>
+    <row r="5" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+    </row>
+    <row r="6" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G6" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="16"/>
+      <c r="H6" s="17"/>
       <c r="I6" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G7" s="15" t="s">
+    <row r="7" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G7" s="16" t="s">
         <v>1</v>
       </c>
       <c r="H7" s="7" t="s">
@@ -831,27 +840,27 @@
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G8" s="15"/>
+    <row r="8" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G8" s="16"/>
       <c r="H8" s="6" t="s">
         <v>3</v>
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G9" s="15"/>
+    <row r="9" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G9" s="16"/>
       <c r="H9" s="5" t="s">
         <v>4</v>
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G10" s="17"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="19"/>
-    </row>
-    <row r="11" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G11" s="15" t="s">
+    <row r="10" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G10" s="18"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="20"/>
+    </row>
+    <row r="11" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G11" s="16" t="s">
         <v>5</v>
       </c>
       <c r="H11" s="2" t="s">
@@ -861,8 +870,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G12" s="15"/>
+    <row r="12" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G12" s="16"/>
       <c r="H12" s="3" t="s">
         <v>7</v>
       </c>
@@ -870,8 +879,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G13" s="15"/>
+    <row r="13" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G13" s="16"/>
       <c r="H13" s="4" t="s">
         <v>8</v>
       </c>
@@ -879,26 +888,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G14" s="17"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="19"/>
-    </row>
-    <row r="15" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G15" s="14" t="s">
+    <row r="14" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G14" s="18"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="20"/>
+    </row>
+    <row r="15" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G15" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="14"/>
+      <c r="H15" s="15"/>
       <c r="I15" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G16" s="14" t="s">
+    <row r="16" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G16" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="14"/>
-      <c r="I16" s="20">
+      <c r="H16" s="15"/>
+      <c r="I16" s="14">
         <v>43990</v>
       </c>
     </row>
@@ -922,28 +931,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="126" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="E10" zoomScale="126" zoomScaleNormal="124" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="12"/>
+    <col min="1" max="1" width="9.109375" style="12"/>
     <col min="2" max="2" width="15" style="12" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="29.85546875" style="12" customWidth="1"/>
-    <col min="5" max="5" width="27.85546875" style="12" customWidth="1"/>
-    <col min="6" max="6" width="24.28515625" style="12" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" style="12" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" style="12" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="12" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" style="12" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" style="12" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" style="12" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="12"/>
+    <col min="3" max="3" width="15.33203125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="29.88671875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="27.88671875" style="12" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" style="12" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" style="12" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" style="12" customWidth="1"/>
+    <col min="9" max="9" width="14.5546875" style="12" customWidth="1"/>
+    <col min="10" max="10" width="16.88671875" style="12" customWidth="1"/>
+    <col min="11" max="11" width="11.44140625" style="12" customWidth="1"/>
+    <col min="12" max="12" width="12.88671875" style="12" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="11" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="11" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>12</v>
       </c>
@@ -981,7 +990,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="9" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="9" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -1015,7 +1024,7 @@
       <c r="K2" s="8"/>
       <c r="L2"/>
     </row>
-    <row r="3" spans="1:12" s="9" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" s="9" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -1046,10 +1055,14 @@
       <c r="J3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-    </row>
-    <row r="4" spans="1:12" s="9" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K3" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="9" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -1083,7 +1096,7 @@
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:12" s="9" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" s="9" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -1114,10 +1127,14 @@
       <c r="J5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-    </row>
-    <row r="6" spans="1:12" s="9" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K5" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="9" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -1151,7 +1168,7 @@
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
     </row>
-    <row r="7" spans="1:12" s="9" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" s="9" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -1185,7 +1202,7 @@
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
     </row>
-    <row r="8" spans="1:12" s="9" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" s="9" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -1219,7 +1236,7 @@
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
     </row>
-    <row r="9" spans="1:12" s="9" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" s="9" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -1253,7 +1270,7 @@
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
     </row>
-    <row r="10" spans="1:12" s="9" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" s="9" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -1284,10 +1301,14 @@
       <c r="J10" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-    </row>
-    <row r="11" spans="1:12" s="9" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K10" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="9" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -1318,10 +1339,14 @@
       <c r="J11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-    </row>
-    <row r="12" spans="1:12" s="9" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K11" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="9" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -1335,7 +1360,7 @@
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
     </row>
-    <row r="13" spans="1:12" s="9" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" s="9" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>

--- a/testing/FutureMarker-Defect-Reporting-(Martin).xlsx
+++ b/testing/FutureMarker-Defect-Reporting-(Martin).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="92">
   <si>
     <t>Total bugs encountered</t>
   </si>
@@ -295,6 +295,18 @@
   </si>
   <si>
     <t>Closed</t>
+  </si>
+  <si>
+    <t>INSTlooad attachments into it this attachmentsn</t>
+  </si>
+  <si>
+    <t>TUDla show for instructor that s/hen</t>
+  </si>
+  <si>
+    <t>HAVE Dlodon`th</t>
+  </si>
+  <si>
+    <t>CLICloinn</t>
   </si>
 </sst>
 </file>
@@ -931,8 +943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E10" zoomScale="126" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="E9" zoomScale="126" zoomScaleNormal="124" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1059,7 +1071,7 @@
         <v>85</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="9" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1131,7 +1143,7 @@
         <v>85</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="9" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1343,7 +1355,7 @@
         <v>85</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="9" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
